--- a/Sent to client/A4_final_report.xlsx
+++ b/Sent to client/A4_final_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samira/Desktop/Instacart Basket Analysis/Sent to client/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samira/Downloads/Instacart Basket Analysis/05 Sent to client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCC8F0-C294-8D4A-90C6-67A2896C425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75ECF40-1EAA-4249-8120-A3A6ED40CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Contents:</t>
   </si>
@@ -94,27 +94,6 @@
   </si>
   <si>
     <t>Visualizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Question 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Question 2 </t>
-  </si>
-  <si>
-    <t>Key Question 3</t>
-  </si>
-  <si>
-    <t>Key Question 4</t>
-  </si>
-  <si>
-    <t>Key Question 5</t>
-  </si>
-  <si>
-    <t>Key Question 6</t>
-  </si>
-  <si>
-    <t>Key Question 7</t>
   </si>
   <si>
     <t>Question</t>
@@ -252,29 +231,195 @@
     <t>The busiest days are Sunday and Monday and the busiest time of the day is from 9 AM to 5 PM.</t>
   </si>
   <si>
-    <t>Most money is spent from 9 AM to 5 PM.</t>
-  </si>
-  <si>
     <t>A simpler price range could be from 0 - 15.</t>
   </si>
   <si>
-    <t>The departments which have a significant higher number of orders are 4, 16, 19 and 7.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key Question 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What are the busiest days of the week? What are the busiest hours of the day?</t>
+    </r>
   </si>
   <si>
-    <t>Most of the customers are parents and there are almost so many married adults as single adult. By far most of the people are ordering during usual hours. Around two third of the orders are made during the week.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key Question 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Are there particular times of the week when people spend the most money? Are there particular times of the day when people spend the most money?</t>
+    </r>
   </si>
   <si>
-    <t>Apparently there aren't any relationships between the regions and the age, income, departments and family status.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key Question 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Are there certain types of products that are more popular than others? </t>
+    </r>
   </si>
   <si>
-    <t>tbc</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key Question 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What could be a simpler price range?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Key Question 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The marketing and sales teams are particularly interested in the different types of customers in their system and how their ordering behaviors differ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Most of the customers are parents and there are almost so many married adults as single adults. By far most of the people are ordering during usual hours. Around two third of the orders are made during the week.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What’s the distribution among users in regards to their brand loyalty (i.e., how often do they return to Instacart)? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the customers are regular customers (10-40 orders), there are only about one fifth new customers. </t>
+  </si>
+  <si>
+    <t>- Is there a relationship between income and age?</t>
+  </si>
+  <si>
+    <t>The older the customer the more they earn. For example there are no customers under the age of 40 earning more than 400'000. A lot of customers earn up to 200'000.</t>
+  </si>
+  <si>
+    <t>- What is the distribution of the characteristicts?</t>
+  </si>
+  <si>
+    <t>A good half of the customers are parents, the rest about single or married adults. Most orders are made during normal hours (7 am - 9 pm). Twice as many orders are placed during the week than on weekends - which means that in relation to the number of days, more orders are placed on weekends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Are there differences in ordering habits based on a customer’s region? </t>
+  </si>
+  <si>
+    <t>There aren't big differences among the regions of the US in spending habits. In general, there are more High spender than Low spender.</t>
+  </si>
+  <si>
+    <t>- Is there a relationship between the characteristics and the geographic regions?</t>
+  </si>
+  <si>
+    <t>Apparently there aren't any relationships between the regions and family, time and day characteristics.</t>
+  </si>
+  <si>
+    <t>Most money is spent from 9 AM to 5 PM mostly around the weekend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Are there differences in ordering habits based on a customer’s family characteristics? </t>
+  </si>
+  <si>
+    <t>The ordering habits don't change based on a customer's family characteristics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The top 3 departments are 4 - produce, 16 - dairy eggs and 19 - snacks whereas 2 - other and 21 - missing look like they have almost 0 orders.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +473,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -761,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -792,7 +952,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -815,6 +974,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5144,8 +5321,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="153683" y="747699"/>
-          <a:ext cx="574124" cy="653620"/>
+          <a:off x="166464" y="805934"/>
+          <a:ext cx="626518" cy="713269"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5193,8 +5370,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1575" y="56694"/>
-          <a:ext cx="966488" cy="676510"/>
+          <a:off x="475" y="51869"/>
+          <a:ext cx="1054688" cy="738247"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5263,8 +5440,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="34605" y="89724"/>
-        <a:ext cx="900428" cy="610450"/>
+        <a:off x="36520" y="87914"/>
+        <a:ext cx="982598" cy="666157"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -5274,8 +5451,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1027450" y="121215"/>
-          <a:ext cx="1547806" cy="546785"/>
+          <a:off x="1119970" y="122278"/>
+          <a:ext cx="1689056" cy="596684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5349,8 +5526,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1027450" y="121215"/>
-        <a:ext cx="1547806" cy="546785"/>
+        <a:off x="1119970" y="122278"/>
+        <a:ext cx="1689056" cy="596684"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -5360,8 +5537,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="814147" y="816638"/>
-          <a:ext cx="1047035" cy="737450"/>
+          <a:off x="887201" y="881165"/>
+          <a:ext cx="1142586" cy="804749"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5433,8 +5610,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="850153" y="852644"/>
-        <a:ext cx="975023" cy="665438"/>
+        <a:off x="926493" y="920457"/>
+        <a:ext cx="1064002" cy="726165"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -5444,8 +5621,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1781213" y="911629"/>
-          <a:ext cx="1168511" cy="546785"/>
+          <a:off x="1941277" y="984824"/>
+          <a:ext cx="1275147" cy="596684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5499,8 +5676,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1781213" y="911629"/>
-        <a:ext cx="1168511" cy="546785"/>
+        <a:off x="1941277" y="984824"/>
+        <a:ext cx="1275147" cy="596684"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5522,8 +5699,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="170548" y="994195"/>
-          <a:ext cx="638434" cy="726834"/>
+          <a:off x="186271" y="1064941"/>
+          <a:ext cx="701254" cy="798353"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5575,8 +5752,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1402" y="218683"/>
-          <a:ext cx="1074747" cy="752288"/>
+          <a:off x="481" y="213120"/>
+          <a:ext cx="1180500" cy="826311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5648,8 +5825,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="38132" y="255413"/>
-        <a:ext cx="1001287" cy="678828"/>
+        <a:off x="40825" y="253464"/>
+        <a:ext cx="1099812" cy="745623"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -5659,8 +5836,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1092091" y="269265"/>
-          <a:ext cx="1511817" cy="608032"/>
+          <a:off x="1198492" y="268679"/>
+          <a:ext cx="1660577" cy="667861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5731,8 +5908,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1092091" y="269265"/>
-        <a:ext cx="1511817" cy="608032"/>
+        <a:off x="1198492" y="268679"/>
+        <a:ext cx="1660577" cy="667861"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -5742,8 +5919,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="919510" y="1063751"/>
-          <a:ext cx="1074747" cy="752288"/>
+          <a:off x="1008929" y="1141341"/>
+          <a:ext cx="1180500" cy="826311"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5815,8 +5992,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="956240" y="1100481"/>
-        <a:ext cx="1001287" cy="678828"/>
+        <a:off x="1049273" y="1181685"/>
+        <a:ext cx="1099812" cy="745623"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -5826,8 +6003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2015459" y="1135499"/>
-          <a:ext cx="781668" cy="608032"/>
+          <a:off x="2212718" y="1220148"/>
+          <a:ext cx="858583" cy="667861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5881,8 +6058,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2015459" y="1135499"/>
-        <a:ext cx="781668" cy="608032"/>
+        <a:off x="2212718" y="1220148"/>
+        <a:ext cx="858583" cy="667861"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5904,8 +6081,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="80877" y="1245670"/>
-          <a:ext cx="832680" cy="575583"/>
+          <a:off x="90048" y="1333733"/>
+          <a:ext cx="910773" cy="629563"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5957,8 +6134,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="59821" y="497568"/>
-          <a:ext cx="2064520" cy="552996"/>
+          <a:off x="67017" y="515472"/>
+          <a:ext cx="2258139" cy="604858"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6030,8 +6207,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="86821" y="524568"/>
-        <a:ext cx="2010520" cy="498996"/>
+        <a:off x="96549" y="545004"/>
+        <a:ext cx="2199075" cy="545794"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -6041,8 +6218,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2123418" y="330523"/>
-          <a:ext cx="1055946" cy="821383"/>
+          <a:off x="2324147" y="332761"/>
+          <a:ext cx="1154977" cy="898416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6113,8 +6290,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2123418" y="330523"/>
-        <a:ext cx="1055946" cy="821383"/>
+        <a:off x="2324147" y="332761"/>
+        <a:ext cx="1154977" cy="898416"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -6124,8 +6301,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="855444" y="1428403"/>
-          <a:ext cx="2106028" cy="669388"/>
+          <a:off x="937257" y="1533604"/>
+          <a:ext cx="2303541" cy="732166"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6194,8 +6371,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="888127" y="1461086"/>
-        <a:ext cx="2040662" cy="604022"/>
+        <a:off x="973005" y="1569352"/>
+        <a:ext cx="2232045" cy="660670"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -6205,8 +6382,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3022914" y="1348519"/>
-          <a:ext cx="1146937" cy="821383"/>
+          <a:off x="3308001" y="1446228"/>
+          <a:ext cx="1254502" cy="898416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6260,8 +6437,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3022914" y="1348519"/>
-        <a:ext cx="1146937" cy="821383"/>
+        <a:off x="3308001" y="1446228"/>
+        <a:ext cx="1254502" cy="898416"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6283,8 +6460,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="171327" y="1042469"/>
-          <a:ext cx="640691" cy="729404"/>
+          <a:off x="185227" y="1113070"/>
+          <a:ext cx="691821" cy="787613"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -6332,8 +6509,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1583" y="271346"/>
-          <a:ext cx="1078547" cy="754948"/>
+          <a:off x="1936" y="280408"/>
+          <a:ext cx="1164619" cy="815195"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6402,8 +6579,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="38443" y="308206"/>
-        <a:ext cx="1004827" cy="681228"/>
+        <a:off x="41738" y="320210"/>
+        <a:ext cx="1085015" cy="735591"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -6413,8 +6590,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1123753" y="359932"/>
-          <a:ext cx="1194769" cy="610182"/>
+          <a:off x="1213659" y="376064"/>
+          <a:ext cx="1290116" cy="658877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6478,8 +6655,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1123753" y="359932"/>
-        <a:ext cx="1194769" cy="610182"/>
+        <a:off x="1213659" y="376064"/>
+        <a:ext cx="1290116" cy="658877"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -6489,8 +6666,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1014420" y="1189899"/>
-          <a:ext cx="1078547" cy="754948"/>
+          <a:off x="1095601" y="1272265"/>
+          <a:ext cx="1164619" cy="815195"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6559,8 +6736,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1051280" y="1226759"/>
-        <a:ext cx="1004827" cy="681228"/>
+        <a:off x="1135403" y="1312067"/>
+        <a:ext cx="1085015" cy="735591"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -6570,8 +6747,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2074426" y="1191403"/>
-          <a:ext cx="784432" cy="610182"/>
+          <a:off x="2240425" y="1273890"/>
+          <a:ext cx="847033" cy="658877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6625,8 +6802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2074426" y="1191403"/>
-        <a:ext cx="784432" cy="610182"/>
+        <a:off x="2240425" y="1273890"/>
+        <a:ext cx="847033" cy="658877"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15231,14 +15408,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
@@ -15255,8 +15432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301625" y="1905000"/>
-          <a:ext cx="3254375" cy="388938"/>
+          <a:off x="304799" y="1981200"/>
+          <a:ext cx="4080934" cy="363538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15315,7 +15492,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Bar chart: order_day_of_week</a:t>
+            <a:t>What are the busiest days of the week?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15457,15 +15634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>217027</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>4738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>12678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15480,8 +15657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="301625" y="4953000"/>
-          <a:ext cx="2214563" cy="388938"/>
+          <a:off x="521827" y="17721238"/>
+          <a:ext cx="3897773" cy="388940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15540,8 +15717,25 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Histogram: prices</a:t>
+            <a:t>What</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> could be a simpler price range?</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15550,15 +15744,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:colOff>208247</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:colOff>390750</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>60604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15581,8 +15775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5341938"/>
-          <a:ext cx="3190875" cy="2127250"/>
+          <a:off x="208247" y="17935357"/>
+          <a:ext cx="3179703" cy="2127747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15594,22 +15788,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>73025</xdr:colOff>
+      <xdr:colOff>16140</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>160337</xdr:rowOff>
+      <xdr:rowOff>101647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151145</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>97838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Textfeld 12">
+        <xdr:cNvPr id="15" name="Textfeld 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23217972-B53F-2C4D-A5BF-D2E0BA42F256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11184918-A79C-0F49-BFBF-64395DD3F038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15617,8 +15811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="374650" y="7970837"/>
-          <a:ext cx="2214563" cy="388938"/>
+          <a:off x="314041" y="7815721"/>
+          <a:ext cx="7551178" cy="372487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15677,8 +15871,25 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Scatterplot: prices</a:t>
+            <a:t>Are there particular days of the week when</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> people spend the most money?</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15686,23 +15897,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209286</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>20420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76683</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>84417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Grafik 13">
+        <xdr:cNvPr id="16" name="Grafik 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2180CC91-4E33-1B07-92B0-40955ABD94F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE031395-6A54-E8D3-01AA-523F2904638B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15718,8 +15929,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="261938" y="8191500"/>
-          <a:ext cx="2833688" cy="1889125"/>
+          <a:off x="3206486" y="17927420"/>
+          <a:ext cx="3232897" cy="2159497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478062</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>174841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>407820</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>121162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Grafik 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D082DBF-5884-2F57-3555-815F2A61E89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6167662" y="17891341"/>
+          <a:ext cx="3333358" cy="2232321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>93379</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17733</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>154034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Grafik 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3544B160-83E5-60B9-10E5-7349D7870704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93379" y="8204717"/>
+          <a:ext cx="2919045" cy="1921169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15730,23 +16029,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>74613</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373063</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>178740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Textfeld 14">
+        <xdr:cNvPr id="19" name="Textfeld 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11184918-A79C-0F49-BFBF-64395DD3F038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5301C7-52E9-FB4B-B08F-F9000648669D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15754,8 +16053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="376238" y="10583862"/>
-          <a:ext cx="4346575" cy="388938"/>
+          <a:off x="190501" y="4677364"/>
+          <a:ext cx="3961540" cy="393228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15814,8 +16113,15 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Line chart: prices and order_day_of_week</a:t>
+            <a:t>What are the busiest hours of the day?</a:t>
           </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15823,111 +16129,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>41922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 15">
+        <xdr:cNvPr id="20" name="Grafik 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE031395-6A54-E8D3-01AA-523F2904638B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3008313" y="5334001"/>
-          <a:ext cx="3238500" cy="2159000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>277812</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>97894</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Grafik 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D082DBF-5884-2F57-3555-815F2A61E89E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5976937" y="5294311"/>
-          <a:ext cx="3349625" cy="2233083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>158751</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75408</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Grafik 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3544B160-83E5-60B9-10E5-7349D7870704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBCD636-DF22-76DE-F29C-BC3F9C7A931A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15943,8 +16161,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="158751" y="10977562"/>
-          <a:ext cx="2917032" cy="1944688"/>
+          <a:off x="0" y="4870275"/>
+          <a:ext cx="3803826" cy="2509425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127611</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44434</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Grafik 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCFCA73-94E0-BA61-EBFD-8F47BF3C6235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14778625" y="2293644"/>
+          <a:ext cx="3321896" cy="2724918"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15956,22 +16218,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:colOff>21</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>611187</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15678</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>148637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Textfeld 18">
+        <xdr:cNvPr id="24" name="Textfeld 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5301C7-52E9-FB4B-B08F-F9000648669D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650FFB09-4AFD-3D4B-856C-B989A1568CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15979,8 +16241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330201" y="13176249"/>
-          <a:ext cx="5305424" cy="1039813"/>
+          <a:off x="297922" y="10669820"/>
+          <a:ext cx="7431830" cy="391410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16039,7 +16301,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Histogram:</a:t>
+            <a:t>Are there particular times of the day when</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
@@ -16049,28 +16311,9 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> order_hour_of_day</a:t>
+            <a:t> people spend the most money?</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE" sz="1600" b="1" baseline="0">
+          <a:endParaRPr lang="de-DE" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -16078,102 +16321,29 @@
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The histogram shows us the frequency of the 'order_hour_of_day' column. We can see that the most orders have been made between 10 and 16 o'clock - and almost none at around 4am. Which makes sense because that's when we (should) sleep :)</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>528689</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>277812</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Grafik 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBCD636-DF22-76DE-F29C-BC3F9C7A931A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="142875" y="13962063"/>
-          <a:ext cx="3810000" cy="2540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>61915</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>233562</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Textfeld 20">
+        <xdr:cNvPr id="28" name="Textfeld 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B802029D-0389-6643-83B6-66601D518E2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C99E083-CF57-4B4E-BC14-EB0366B8BFB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16181,8 +16351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="363540" y="16873537"/>
-          <a:ext cx="2390773" cy="388938"/>
+          <a:off x="14308919" y="5703649"/>
+          <a:ext cx="5076827" cy="368428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16241,7 +16411,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Bar chart:</a:t>
+            <a:t>Is</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
@@ -16251,15 +16421,18 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> loyalty_flag</a:t>
+            <a:t> there a relationship between i</a:t>
           </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ncome and age?</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16267,23 +16440,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>103186</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78455</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>168478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>20009</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>502317</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Grafik 22">
+        <xdr:cNvPr id="29" name="Grafik 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCFCA73-94E0-BA61-EBFD-8F47BF3C6235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CD3067-2F63-42AE-E19B-CF3D017175D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16299,8 +16472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="404811" y="17343437"/>
-          <a:ext cx="3290261" cy="2817813"/>
+          <a:off x="13858685" y="5861581"/>
+          <a:ext cx="3781333" cy="2532629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16311,629 +16484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Textfeld 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650FFB09-4AFD-3D4B-856C-B989A1568CBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="492127" y="20828000"/>
-          <a:ext cx="4437061" cy="388938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Line chart: prices and order_hour_of_day</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277813</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Grafik 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A71A106-E8CF-DB5B-0168-9C3629F693CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="277813" y="21129625"/>
-          <a:ext cx="3619500" cy="2413000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>176214</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>1587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373062</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Textfeld 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9935B83-7778-7341-9F64-D62F08C7AF7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="477839" y="24195087"/>
-          <a:ext cx="3570286" cy="388938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Line chart: n_dependants and age</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277813</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257968</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Grafik 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457A84B8-D2E8-0FF7-6F4C-66FAAA56D26C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="277813" y="24503063"/>
-          <a:ext cx="3655218" cy="2436812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>217488</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>150814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Textfeld 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C99E083-CF57-4B4E-BC14-EB0366B8BFB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="519113" y="27582814"/>
-          <a:ext cx="5465761" cy="841374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Scatterplot: income and age</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>The older the customer the more they earn. For example there are no customers under the age of 40 earning more than 400'000. A lot of customers earn up to 200'000.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>246062</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>13230</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Grafik 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CD3067-2F63-42AE-E19B-CF3D017175D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="127000" y="28154313"/>
-          <a:ext cx="3794125" cy="2529417"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>7939</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Textfeld 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A58CB2B-7108-A94B-B5F0-FF831B481FAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="301626" y="31051501"/>
-          <a:ext cx="4818062" cy="769938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Bar: region and spending flag</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE" sz="1000" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>It looks like there aren't big differences among the regions of the US in spending habits. In general, there are more High spender than Low spender.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1588</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>160337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>420688</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16949,8 +16508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="303213" y="31973837"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="14276388" y="14066837"/>
+          <a:ext cx="3098800" cy="388938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17018,15 +16577,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431801</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>646113</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>169863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17042,8 +16601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3432176" y="31975425"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="17386301" y="14068425"/>
+          <a:ext cx="3122612" cy="388938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17111,16 +16670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>163512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17135,8 +16694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6561138" y="31977012"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="20520025" y="14070012"/>
+          <a:ext cx="3084513" cy="376238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17204,16 +16763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>563564</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>373064</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>307976</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>117476</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17228,8 +16787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9675814" y="31980187"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="23601364" y="14073187"/>
+          <a:ext cx="3109912" cy="376238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17297,15 +16856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>87313</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104740</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>574640</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17314,6 +16873,189 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8026A14-C0BA-4B09-1462-C3B6A49E215F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14362113" y="14549437"/>
+          <a:ext cx="2709827" cy="2301876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>331788</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>5291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Grafik 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCA71A2-7F60-A714-9229-06E00D7F2BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17470438" y="14581188"/>
+          <a:ext cx="2724150" cy="2378603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10748</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>103189</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>41136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Grafik 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E39345A-2B2F-E7CB-823C-891465298155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20546648" y="14541500"/>
+          <a:ext cx="2784841" cy="2454136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>439407</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>34923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>606424</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Grafik 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907C6FA7-9B07-1CC3-0F68-4210FBC40A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17336,191 +17078,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="388938" y="32456437"/>
-          <a:ext cx="2716177" cy="2301876"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>515938</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>5291</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Grafik 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCA71A2-7F60-A714-9229-06E00D7F2BF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3516313" y="32488188"/>
-          <a:ext cx="2730500" cy="2378603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213948</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>293689</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>41136</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Grafik 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E39345A-2B2F-E7CB-823C-891465298155}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6587761" y="32448500"/>
-          <a:ext cx="2818178" cy="2454136"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>629907</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>111124</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>57879</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Grafik 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907C6FA7-9B07-1CC3-0F68-4210FBC40A9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9742157" y="32432623"/>
-          <a:ext cx="2854655" cy="2486756"/>
+          <a:off x="23667707" y="14512923"/>
+          <a:ext cx="2859417" cy="2499456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17541,16 +17100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>65089</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>73027</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10159</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17565,8 +17124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358776" y="35117089"/>
-          <a:ext cx="4818062" cy="769938"/>
+          <a:off x="14270990" y="9337268"/>
+          <a:ext cx="4860289" cy="371811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17625,28 +17184,19 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Bar: characteristics</a:t>
+            <a:t>What</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE" sz="1000" b="1">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> is the distribution of the characteristicts?</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -17654,51 +17204,22 @@
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>It looks like there aren't big differences among the regions of the US in spending habits. In general, there are more High spender than Low spender.</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>58738</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>146049</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>536258</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>477838</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>153987</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>269558</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>62547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17713,8 +17234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360363" y="36150549"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="14292898" y="9899649"/>
+          <a:ext cx="3086100" cy="394018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17782,16 +17303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>608013</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>335281</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17806,8 +17327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6602413" y="36153724"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="20462241" y="9892664"/>
+          <a:ext cx="3017520" cy="399416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17868,6 +17389,16 @@
             </a:rPr>
             <a:t>Day</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (which day orders are made)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17875,16 +17406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>255588</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>49211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17899,8 +17430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3484563" y="36155311"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="17730788" y="10412411"/>
+          <a:ext cx="3173412" cy="414338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17961,6 +17492,16 @@
             </a:rPr>
             <a:t>Time</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> (when orders are made)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17968,16 +17509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30983</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>488183</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17993,7 +17534,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18007,8 +17548,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="332608" y="36726813"/>
-          <a:ext cx="3045592" cy="2589212"/>
+          <a:off x="14534383" y="11022013"/>
+          <a:ext cx="3077342" cy="2767012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18029,16 +17570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>410428</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>181828</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>111734</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>29276</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18054,7 +17595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18068,8 +17609,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3410803" y="36702999"/>
-          <a:ext cx="3090009" cy="2461235"/>
+          <a:off x="17657028" y="10998199"/>
+          <a:ext cx="3145571" cy="2645477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18090,16 +17631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>138516</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>595716</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>592138</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>388938</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>144461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18115,7 +17656,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18129,8 +17670,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6512329" y="36679188"/>
-          <a:ext cx="3192059" cy="2987673"/>
+          <a:off x="20814116" y="10974388"/>
+          <a:ext cx="3222222" cy="3190873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18151,16 +17692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>84137</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>29195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>174624</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>656896</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>3905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18175,8 +17716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="473075" y="39517637"/>
-          <a:ext cx="4051299" cy="388938"/>
+          <a:off x="14546973" y="17488046"/>
+          <a:ext cx="7948084" cy="354250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18235,7 +17776,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Scatterplot: region and characteristics</a:t>
+            <a:t>Is there a relationship between the characteristics and the geographic regions?</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18244,16 +17785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>44449</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100240</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>181126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>498777</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>7636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18268,8 +17809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="488950" y="40430449"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="14412938" y="17235412"/>
+          <a:ext cx="3059490" cy="370795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18337,16 +17878,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>612776</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>49211</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>428928</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>173188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>173340</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>12398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18361,8 +17902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3613151" y="40435211"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="17402579" y="17227474"/>
+          <a:ext cx="3070602" cy="383495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18430,16 +17971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165402</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>171601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>581327</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>10811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18454,8 +17995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6723063" y="40433624"/>
-          <a:ext cx="3117850" cy="388938"/>
+          <a:off x="20465243" y="17225887"/>
+          <a:ext cx="3076878" cy="383495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18523,16 +18064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122466</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>60477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>631610</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523962</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>176365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18540,6 +18081,189 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7EDED3-A2E2-C6C6-BB7A-DB3F65A04AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14435164" y="17840477"/>
+          <a:ext cx="3062449" cy="1748745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>455678</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>58436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114526</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>177951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Grafik 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F15C9F-DB7B-921F-5BAF-57C4A7B67FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17429329" y="17838436"/>
+          <a:ext cx="2985038" cy="1752372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>125714</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>50497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>124051</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>163448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Grafik 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082DEEF3-33EE-0894-C1FC-AD21E1B7EDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20425555" y="17830497"/>
+          <a:ext cx="3324528" cy="1745808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63623</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>154754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419148</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>141385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Grafik 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482CBF84-0397-F19F-A122-CFAB49431DB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18562,130 +18286,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="523876" y="41084500"/>
-          <a:ext cx="3108109" cy="1817688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>639526</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>277812</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Grafik 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F15C9F-DB7B-921F-5BAF-57C4A7B67FA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3639901" y="41060687"/>
-          <a:ext cx="3011724" cy="1843087"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>26771</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Grafik 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082DEEF3-33EE-0894-C1FC-AD21E1B7EDCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6683375" y="41052748"/>
-          <a:ext cx="3365500" cy="1836523"/>
+          <a:off x="361524" y="11255495"/>
+          <a:ext cx="3052315" cy="2244409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18707,22 +18309,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>194844</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>138028</xdr:rowOff>
+      <xdr:colOff>197146</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>441158</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>145965</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536620</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Textfeld 54">
+        <xdr:cNvPr id="57" name="Textfeld 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1ED179A-B310-8248-994A-298840D4AAD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CB0557-2E5E-4949-97E4-C56C319F2B3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18730,8 +18332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="502318" y="42435712"/>
-          <a:ext cx="4256840" cy="382253"/>
+          <a:off x="501231" y="13781119"/>
+          <a:ext cx="7047220" cy="383572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18790,25 +18392,8 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Bar: prices (sum)</a:t>
+            <a:t>Are there certain types of products that are more popular than others? </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> and order_hour_of_day</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1600" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18817,22 +18402,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>173789</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>106947</xdr:rowOff>
+      <xdr:colOff>143513</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>27144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>529314</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>93578</xdr:rowOff>
+      <xdr:colOff>643921</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>54298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Grafik 55">
+        <xdr:cNvPr id="58" name="Grafik 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482CBF84-0397-F19F-A122-CFAB49431DB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5833E25B-9F9F-F347-A0EA-3E73DDFE8DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18841,7 +18426,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18855,8 +18440,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="481263" y="43153263"/>
-          <a:ext cx="3029209" cy="2232526"/>
+          <a:off x="441414" y="14326403"/>
+          <a:ext cx="3197198" cy="2284932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18877,23 +18462,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>160086</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>103270</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>353387</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>111207</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Textfeld 56">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CB0557-2E5E-4949-97E4-C56C319F2B3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FF7FE4-0449-26EE-1A17-16EDDEF28D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18901,8 +18486,1937 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="467560" y="45956954"/>
-          <a:ext cx="4256840" cy="382253"/>
+          <a:off x="9497387" y="2579833"/>
+          <a:ext cx="3617480" cy="2161500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>0 - Saturday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>1 - Sunday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2 - Monday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3 - Tuesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4 - Wednesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>5 - Thursday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>6 - Friday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>We can see that most orders are placed on Saturday and Sunday, which are weekends. On Monday they drop and slowly rise again towards the weekend.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>643467</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211671</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F515D2-C4E2-5643-B946-8151DF99B2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2302936" y="3318931"/>
+          <a:ext cx="1600200" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Frequency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>618071</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FFC825-F646-D846-B6C3-48237242A8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5418670" y="3293531"/>
+          <a:ext cx="1600200" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Frequency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>110066</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50803</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11786D9F-5C4A-BE47-BDA0-570A5D1B76E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-567265" y="3318931"/>
+          <a:ext cx="1600200" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Frequency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169337</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED8A9A0-C892-F944-8394-7494713C5EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474137" y="4419598"/>
+          <a:ext cx="2446863" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Day of the week</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355604</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>143931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D809C61-2C58-E840-89F7-A697AA89856A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369737" y="4428064"/>
+          <a:ext cx="2514596" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Day of the week</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127003</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643467</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A57C23-AAEC-0F42-B9F2-A22F03CB5F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527803" y="4444998"/>
+          <a:ext cx="2548464" cy="245537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Day of the week</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>386029</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>96967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA95BA26-FEB3-734A-B3A4-B1E37DCCEE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9479229" y="18765967"/>
+          <a:ext cx="3335071" cy="652333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>In these histograms we can see that there are some extreme high prices but the most prices are up to 15.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>A simpler price range could be from 0 - 15.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623587</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462717</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>80185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF50A16C-4A0E-9B4E-85A7-E6ED4FB04024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3620787" y="20031382"/>
+          <a:ext cx="2531530" cy="241803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Prices</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218285</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>54780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18301</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>107937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696CD815-B8F2-4A4D-ADBE-EBF747934D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6580985" y="20057280"/>
+          <a:ext cx="2530516" cy="243657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Prices</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>277552</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>37349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121663</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>91004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3899628-E365-5645-88B8-D7C7302A50FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="582352" y="20039849"/>
+          <a:ext cx="2536511" cy="244155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Prices</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582098</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95609</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>82562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBE26E8-021B-8C4A-9237-EC4D1AEF4CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2902592" y="8280375"/>
+          <a:ext cx="4907091" cy="2150335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>0 - Saturday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>1 - Sunday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2 - Monday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3 - Tuesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4 - Wednesday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>5 - Thursday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>6 - Friday</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Again also here we can recognize that most money is spent around the weekend. As this is just a sample (data) it doesn't represent the whole dataset and might vary from the one above - e. g. Less money spent on Sunday.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134311</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>178740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FCF0E1-F0B4-BC45-8047-E5C783A56035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="432212" y="7260637"/>
+          <a:ext cx="2978404" cy="255881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>order hour of the day (24h)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591510</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>517524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>111010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA61350-BDAF-C142-89E6-7D472F4D24E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3586201" y="5567306"/>
+          <a:ext cx="3297002" cy="940741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The histogram shows us the frequency of the 'order_hour_of_day' column. We can see that the most orders have been made between 10 and 16 o'clock - and almost none at around 4am. Which makes sense because that's when we (should) sleep :)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>648744</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>680040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457978E0-D549-C74C-A217-8E212F906966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18023816" y="2584251"/>
+          <a:ext cx="3436369" cy="634133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>In this bar chart we can see the frequency of loyalty. Most of the customers are regular customers (10-40 orders), there are only about one fifth new customers. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>575948</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>173698</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13E767B-C6BC-FC41-972D-23B2A088A338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13807125" y="3208091"/>
+          <a:ext cx="1756409" cy="278764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>Frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75264</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655759</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55DD497-C6B9-FE49-9FBE-8E47410A3BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3744153" y="11451896"/>
+          <a:ext cx="3277285" cy="646783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>People start shoping at around 9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> am and from 4 pm the money spent starts to decrease. Least money is spent in the late night from around 24 am to 5 am.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>4008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53662</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>143099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextBox 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57F2BA0-BE99-504A-9DCB-C5B747F1F497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985633" y="14465909"/>
+          <a:ext cx="1738311" cy="2017260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>1 - frozen</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>2 - other</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>3 - bakery</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>4 - produce</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>5 - alcohol</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>6 - international</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>7 - beverages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>8 - pets</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>9 - dry goods pasta</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>10 - bulk</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274369</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>71551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554506</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="TextBox 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F92ADB-4B4D-F34A-8801-7106CCDC5B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="578454" y="16599438"/>
+          <a:ext cx="2963235" cy="277611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>departments</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>141835</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>177969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115361</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>17888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1537E0F5-BC70-8043-A772-DD4333942BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-672311" y="15266200"/>
+          <a:ext cx="1905904" cy="277611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>70644</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>97833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44170</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>125568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEFDE12-F992-9B45-A9F2-7FB79F5864F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-743502" y="12180993"/>
+          <a:ext cx="1905904" cy="277611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68667</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>26831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357746</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>143099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="TextBox 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE7D069-7B29-474C-934E-33137991CB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5738949" y="14488732"/>
+          <a:ext cx="1630628" cy="1994437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t> - personal care</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>12 - meat seafood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>13 - pantry</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>14 - breakfast</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>15 - canned goods</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>16 - dairy eggs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>17 - household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>18 - babies</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>19 - snacks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>20 - deli</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" baseline="0"/>
+            <a:t>21 - missing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313028</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>26831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357746</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>125211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5116E696-3311-361D-A471-81F2974154F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970986" y="16554718"/>
+          <a:ext cx="3398591" cy="661831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
+            <a:t> top 3 departments are 4 - produce, 16 - dairy eggs and 19 - snacks whereas 2 - other and 21 - missing look like they have almost 0 orders.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558934</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>369651</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8600D8-EAE9-7345-9E44-A2F7A197FEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14605134" y="1935262"/>
+          <a:ext cx="5982917" cy="736804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18961,7 +20475,840 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Bar: Frequency of departments</a:t>
+            <a:t>What’s the distribution among users in regards to their brand loyalty (i.e., how often do they return to Instacart)? </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466251</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>170605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>265619</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>176448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572A22DB-77FA-5D4F-A21C-884D01F2FCB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14271151" y="13505605"/>
+          <a:ext cx="7203468" cy="386843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Are there differences in ordering habits based on a customer’s region? </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>328007</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>503291</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>61346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAF3E9A-A646-2748-A4E8-EB8D08734F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17465708" y="6481581"/>
+          <a:ext cx="2861261" cy="791029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>The older the customer the more they earn. For example there are no customers under the age of 40 earning more than 400'000. A lot of customers earn up to 200'000.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>257467</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>141762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>439410</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>178705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CD5D95-3553-3246-8C99-25E691931847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26851267" y="15000762"/>
+          <a:ext cx="2874343" cy="798943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>It looks like there aren't big differences among the regions of the US in spending habits. In general, there are more High spender than Low spender.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>224135</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D533625-2061-7441-901B-ED89A1004A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13370867" y="15326667"/>
+          <a:ext cx="1612901" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>376535</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152C28C2-8EFC-0640-945C-CFE66CE987B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="19581167" y="15352067"/>
+          <a:ext cx="1612901" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>655935</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB04E406-9FDC-8341-B300-87941D807949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="16495067" y="15364767"/>
+          <a:ext cx="1612901" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>122535</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="TextBox 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D46846-9CF3-3F4A-BEC8-8499AE4AC8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="22692667" y="15326667"/>
+          <a:ext cx="1612901" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>109835</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB73C0A6-D9AD-8243-ADEA-9FCDBBF1D528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13186717" y="11218216"/>
+          <a:ext cx="1765301" cy="309265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>469134</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>18405</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="TextBox 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7657EB-AE30-DE4C-A3CC-C2B60D35523D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23529660" y="11383045"/>
+          <a:ext cx="3559798" cy="1272878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0"/>
+            <a:t>A good half of the customers are parents, the rest about single or married adults. Most orders are made during normal hours (7 am - 9 pm). Twice as many orders are placed during the week than on weekends - which means that in relation to the number of days, more orders are placed on weekends.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>249648</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>106844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>62331</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>77914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDDD572-C6D5-F981-FB41-1B7159995B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24044617" y="18806231"/>
+          <a:ext cx="2492929" cy="719045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Apparently there aren't any relationships between the regions and family,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> time and day characteristics.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>45820</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>64894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>70736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Textfeld 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DFFFF6-80B9-9743-9974-3A7133069009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14473020" y="21685374"/>
+          <a:ext cx="8620660" cy="391922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Are there differences in ordering habits based on a customer’s family characteristics? </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18970,23 +21317,145 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200527</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>173958</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>26737</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>8688</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Grafik 57">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5833E25B-9F9F-F347-A0EA-3E73DDFE8DD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ECD56B-51A9-AC8B-F4DD-0853BFAAA763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14864080" y="22433280"/>
+          <a:ext cx="2722880" cy="2352580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>493201</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5997767B-4066-EEE4-9F0F-D27971F684C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17617440" y="22412960"/>
+          <a:ext cx="2667441" cy="2367280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>508001</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>8330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>518161</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571FD410-6333-30C9-AC46-996504F7CD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19009,8 +21478,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="508001" y="46589116"/>
-          <a:ext cx="3168315" cy="2267783"/>
+          <a:off x="20299681" y="22400970"/>
+          <a:ext cx="2692400" cy="2389430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19027,6 +21496,380 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>69195</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>172719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>27939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ADF40B-39CF-0247-957A-83E5B1CE9BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13848388" y="23213366"/>
+          <a:ext cx="1592580" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>frequency</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>669597</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>37137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>140662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565FB91A-2689-CE4A-B394-E06CA0E856EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15096797" y="22236737"/>
+          <a:ext cx="2449523" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Ordering</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> habits of parents</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>669597</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>26977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>130502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAA44A6-80C3-8341-98FB-5FE8F4F9C25F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17779037" y="22226577"/>
+          <a:ext cx="2449523" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Ordering</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> habits of single adults</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>649277</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>16817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>120342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E0E81B-0583-D941-8D07-266C011BFE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20440957" y="22216417"/>
+          <a:ext cx="2510483" cy="296565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Ordering</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> habits of married adults</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>473417</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>10159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB3405D-3A06-0F40-A45E-50B7D915AAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23617897" y="23063200"/>
+          <a:ext cx="3336583" cy="690879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>As</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> we can see in the bar charts: the ordering habits don't change based on a customer's family characteristics.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19082,6 +21925,81 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280811</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="280811" y="957662"/>
+          <a:ext cx="8128455" cy="870563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>In this tab you should include</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> any recommendations you would made to Instcart in terms of their marketing strategy based on the questions posed in the brief. Every key question has been covered in the Tasks of the Exercises - here you need to add an item - a visualisation or table/crosstable that is showing the answer in the data, acompanied by a comment from you. Please, list the questions below and add the answer underneath.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -19090,8 +22008,8 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>213840</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1138811</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>72838</xdr:rowOff>
     </xdr:to>
@@ -19529,7 +22447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B13:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -19567,7 +22485,7 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -19589,8 +22507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Y1:Y6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -19624,7 +22542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:CW55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="122" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B54" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
@@ -19662,13 +22580,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -19676,10 +22594,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14">
         <v>5</v>
@@ -19690,13 +22608,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -19704,27 +22622,27 @@
         <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -19784,7 +22702,7 @@
     <row r="21" spans="2:101" ht="16" thickTop="1"/>
     <row r="24" spans="2:101">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -20088,7 +23006,7 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>0</v>
       </c>
       <c r="D25">
@@ -20390,7 +23308,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="37">
         <v>0</v>
       </c>
       <c r="D26">
@@ -20692,7 +23610,7 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>0</v>
       </c>
       <c r="D27">
@@ -20994,7 +23912,7 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <v>0</v>
       </c>
       <c r="D28">
@@ -21296,7 +24214,7 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>0</v>
       </c>
       <c r="D29">
@@ -21598,7 +24516,7 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="37">
         <v>0</v>
       </c>
       <c r="D30">
@@ -21900,7 +24818,7 @@
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="37">
         <v>0</v>
       </c>
       <c r="D31">
@@ -22202,7 +25120,7 @@
       <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <v>0</v>
       </c>
       <c r="D32">
@@ -22504,7 +25422,7 @@
       <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <v>0</v>
       </c>
       <c r="D33">
@@ -22806,7 +25724,7 @@
       <c r="B34">
         <v>9</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>0</v>
       </c>
       <c r="D34">
@@ -23108,7 +26026,7 @@
       <c r="B35">
         <v>10</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <v>0</v>
       </c>
       <c r="D35">
@@ -23410,7 +26328,7 @@
       <c r="B36">
         <v>11</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>0</v>
       </c>
       <c r="D36">
@@ -23712,7 +26630,7 @@
       <c r="B37">
         <v>12</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <v>0</v>
       </c>
       <c r="D37">
@@ -24014,7 +26932,7 @@
       <c r="B38">
         <v>13</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="37">
         <v>0</v>
       </c>
       <c r="D38">
@@ -24316,7 +27234,7 @@
       <c r="B39">
         <v>14</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <v>0</v>
       </c>
       <c r="D39">
@@ -24618,7 +27536,7 @@
       <c r="B40">
         <v>15</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="37">
         <v>0</v>
       </c>
       <c r="D40">
@@ -24920,7 +27838,7 @@
       <c r="B41">
         <v>16</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>0</v>
       </c>
       <c r="D41">
@@ -25222,7 +28140,7 @@
       <c r="B42">
         <v>17</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="37">
         <v>0</v>
       </c>
       <c r="D42">
@@ -25524,7 +28442,7 @@
       <c r="B43">
         <v>18</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <v>0</v>
       </c>
       <c r="D43">
@@ -25826,7 +28744,7 @@
       <c r="B44">
         <v>19</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="37">
         <v>0</v>
       </c>
       <c r="D44">
@@ -26128,7 +29046,7 @@
       <c r="B45">
         <v>20</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="37">
         <v>0</v>
       </c>
       <c r="D45">
@@ -26430,7 +29348,7 @@
       <c r="B46">
         <v>21</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="37">
         <v>0</v>
       </c>
       <c r="D46">
@@ -26732,7 +29650,7 @@
       <c r="B47">
         <v>22</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <v>0</v>
       </c>
       <c r="D47">
@@ -27034,7 +29952,7 @@
       <c r="B48">
         <v>23</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="37">
         <v>0</v>
       </c>
       <c r="D48">
@@ -27336,7 +30254,7 @@
       <c r="B49">
         <v>24</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>0</v>
       </c>
       <c r="D49">
@@ -27638,7 +30556,7 @@
       <c r="B50">
         <v>25</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="37">
         <v>0</v>
       </c>
       <c r="D50">
@@ -27940,7 +30858,7 @@
       <c r="B51">
         <v>26</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>0</v>
       </c>
       <c r="D51">
@@ -28242,7 +31160,7 @@
       <c r="B52">
         <v>27</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="37">
         <v>0</v>
       </c>
       <c r="D52">
@@ -28544,7 +31462,7 @@
       <c r="B53">
         <v>28</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>0</v>
       </c>
       <c r="D53">
@@ -28846,7 +31764,7 @@
       <c r="B54">
         <v>29</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="37">
         <v>0</v>
       </c>
       <c r="D54">
@@ -29148,7 +32066,7 @@
       <c r="B55">
         <v>30</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>0</v>
       </c>
       <c r="D55">
@@ -29459,7 +32377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -29493,105 +32411,105 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="49" thickTop="1">
-      <c r="B7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="26"/>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2"/>
-      <c r="C9" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="27" t="s">
-        <v>42</v>
+      <c r="C10" s="32"/>
+      <c r="D10" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="2"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="2"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="2"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="2"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="2"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="2"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" ht="16" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" ht="16" thickTop="1"/>
@@ -29610,7 +32528,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29639,105 +32557,105 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="49" thickTop="1">
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="48">
       <c r="B8" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="48">
       <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="64">
       <c r="B10" s="18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="64">
       <c r="B11" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="32">
       <c r="B12" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="96">
       <c r="B13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -29755,31 +32673,31 @@
     <row r="16" spans="2:11">
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="25"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="25"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="25"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" ht="16" thickBot="1">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="2:5" ht="16" thickTop="1"/>
@@ -29796,8 +32714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="Q1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A188" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I253" sqref="I253"/>
+    <sheetView showGridLines="0" topLeftCell="E74" zoomScale="210" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AK118" sqref="AK118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29823,18 +32741,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -29842,69 +32760,112 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>29</v>
+    <row r="12" spans="2:5">
+      <c r="B12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="13" spans="2:5" ht="32">
+      <c r="B13" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="64">
+      <c r="B14" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="32">
+      <c r="B15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="48">
+      <c r="B16" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="38" customFormat="1" ht="64">
+      <c r="B17" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="18" spans="2:4" ht="48">
+      <c r="B18" s="42" t="s">
         <v>73</v>
       </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="44" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
+    <row r="19" spans="2:4" ht="32">
+      <c r="B19" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
+    <row r="20" spans="2:4" ht="64">
+      <c r="B20" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="39" customFormat="1" ht="50" customHeight="1">
-      <c r="B11" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>76</v>
+    <row r="21" spans="2:4" ht="32">
+      <c r="B21" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="44" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
+    <row r="22" spans="2:4" ht="32">
+      <c r="B22" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="44" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
+    <row r="23" spans="2:4" ht="32">
+      <c r="B23" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="43" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
